--- a/natmiOut/YoungD2/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H2">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.71197368206089</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N2">
-        <v>4.71197368206089</v>
+        <v>1.349036</v>
       </c>
       <c r="O2">
-        <v>0.03603975574775222</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="P2">
-        <v>0.03603975574775222</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="Q2">
-        <v>356.3098444452282</v>
+        <v>42.86472643773955</v>
       </c>
       <c r="R2">
-        <v>356.3098444452282</v>
+        <v>385.782537939656</v>
       </c>
       <c r="S2">
-        <v>0.006546259204022751</v>
+        <v>0.0006421996217267057</v>
       </c>
       <c r="T2">
-        <v>0.006546259204022751</v>
+        <v>0.0006421996217267057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H3">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.19280066200127</v>
+        <v>8.943258333333334</v>
       </c>
       <c r="N3">
-        <v>5.19280066200127</v>
+        <v>26.82977500000001</v>
       </c>
       <c r="O3">
-        <v>0.03971738386778057</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="P3">
-        <v>0.03971738386778057</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="Q3">
-        <v>392.6690004990654</v>
+        <v>852.4983512382945</v>
       </c>
       <c r="R3">
-        <v>392.6690004990654</v>
+        <v>7672.485161144651</v>
       </c>
       <c r="S3">
-        <v>0.007214263368596202</v>
+        <v>0.01277213607050711</v>
       </c>
       <c r="T3">
-        <v>0.007214263368596202</v>
+        <v>0.01277213607050711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H4">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>120.838999699267</v>
+        <v>5.241885</v>
       </c>
       <c r="N4">
-        <v>120.838999699267</v>
+        <v>15.725655</v>
       </c>
       <c r="O4">
-        <v>0.9242428603844673</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="P4">
-        <v>0.9242428603844673</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="Q4">
-        <v>9137.598826089201</v>
+        <v>499.67228423057</v>
       </c>
       <c r="R4">
-        <v>9137.598826089201</v>
+        <v>4497.05055807513</v>
       </c>
       <c r="S4">
-        <v>0.167879421100724</v>
+        <v>0.00748609354561678</v>
       </c>
       <c r="T4">
-        <v>0.167879421100724</v>
+        <v>0.007486093545616779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.6958799956228</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H5">
-        <v>86.6958799956228</v>
+        <v>285.969046</v>
       </c>
       <c r="I5">
-        <v>0.2082499243332887</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J5">
-        <v>0.2082499243332887</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.71197368206089</v>
+        <v>131.4484583333333</v>
       </c>
       <c r="N5">
-        <v>4.71197368206089</v>
+        <v>394.345375</v>
       </c>
       <c r="O5">
-        <v>0.03603975574775222</v>
+        <v>0.8998186379262142</v>
       </c>
       <c r="P5">
-        <v>0.03603975574775222</v>
+        <v>0.8998186379262143</v>
       </c>
       <c r="Q5">
-        <v>408.5087048824838</v>
+        <v>12530.06340925136</v>
       </c>
       <c r="R5">
-        <v>408.5087048824838</v>
+        <v>112770.5706832622</v>
       </c>
       <c r="S5">
-        <v>0.007505276407459607</v>
+        <v>0.1877254948382963</v>
       </c>
       <c r="T5">
-        <v>0.007505276407459607</v>
+        <v>0.1877254948382963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H6">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I6">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J6">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.19280066200127</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N6">
-        <v>5.19280066200127</v>
+        <v>1.349036</v>
       </c>
       <c r="O6">
-        <v>0.03971738386778057</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="P6">
-        <v>0.03971738386778057</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="Q6">
-        <v>450.1944230340528</v>
+        <v>39.50591938865867</v>
       </c>
       <c r="R6">
-        <v>450.1944230340528</v>
+        <v>355.553274497928</v>
       </c>
       <c r="S6">
-        <v>0.008271142185181485</v>
+        <v>0.0005918779517749383</v>
       </c>
       <c r="T6">
-        <v>0.008271142185181485</v>
+        <v>0.0005918779517749381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H7">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I7">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J7">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>120.838999699267</v>
+        <v>8.943258333333334</v>
       </c>
       <c r="N7">
-        <v>120.838999699267</v>
+        <v>26.82977500000001</v>
       </c>
       <c r="O7">
-        <v>0.9242428603844673</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="P7">
-        <v>0.9242428603844673</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="Q7">
-        <v>10476.24341671875</v>
+        <v>785.6980305683836</v>
       </c>
       <c r="R7">
-        <v>10476.24341671875</v>
+        <v>7071.282275115453</v>
       </c>
       <c r="S7">
-        <v>0.1924735057406476</v>
+        <v>0.01177133321392642</v>
       </c>
       <c r="T7">
-        <v>0.1924735057406476</v>
+        <v>0.01177133321392642</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.0350445338493</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H8">
-        <v>76.0350445338493</v>
+        <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J8">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.71197368206089</v>
+        <v>5.241885</v>
       </c>
       <c r="N8">
-        <v>4.71197368206089</v>
+        <v>15.725655</v>
       </c>
       <c r="O8">
-        <v>0.03603975574775222</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="P8">
-        <v>0.03603975574775222</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="Q8">
-        <v>358.2751287578257</v>
+        <v>460.5188140004101</v>
       </c>
       <c r="R8">
-        <v>358.2751287578257</v>
+        <v>4144.669326003691</v>
       </c>
       <c r="S8">
-        <v>0.006582366150604296</v>
+        <v>0.0068994959895209</v>
       </c>
       <c r="T8">
-        <v>0.006582366150604296</v>
+        <v>0.006899495989520898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.0350445338493</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H9">
-        <v>76.0350445338493</v>
+        <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J9">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.19280066200127</v>
+        <v>131.4484583333333</v>
       </c>
       <c r="N9">
-        <v>5.19280066200127</v>
+        <v>394.345375</v>
       </c>
       <c r="O9">
-        <v>0.03971738386778057</v>
+        <v>0.8998186379262142</v>
       </c>
       <c r="P9">
-        <v>0.03971738386778057</v>
+        <v>0.8998186379262143</v>
       </c>
       <c r="Q9">
-        <v>394.8348295906687</v>
+        <v>11548.22895463158</v>
       </c>
       <c r="R9">
-        <v>394.8348295906687</v>
+        <v>103934.0605916843</v>
       </c>
       <c r="S9">
-        <v>0.007254054799695513</v>
+        <v>0.1730156443911948</v>
       </c>
       <c r="T9">
-        <v>0.007254054799695513</v>
+        <v>0.1730156443911948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H10">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I10">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J10">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>120.838999699267</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N10">
-        <v>120.838999699267</v>
+        <v>1.349036</v>
       </c>
       <c r="O10">
-        <v>0.9242428603844673</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="P10">
-        <v>0.9242428603844673</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="Q10">
-        <v>9187.998723559569</v>
+        <v>40.02385657885332</v>
       </c>
       <c r="R10">
-        <v>9187.998723559569</v>
+        <v>360.2147092096799</v>
       </c>
       <c r="S10">
-        <v>0.1688053870762387</v>
+        <v>0.0005996376902653803</v>
       </c>
       <c r="T10">
-        <v>0.1688053870762387</v>
+        <v>0.0005996376902653802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>67.6416318548069</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H11">
-        <v>67.6416318548069</v>
+        <v>267.01638</v>
       </c>
       <c r="I11">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J11">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.71197368206089</v>
+        <v>8.943258333333334</v>
       </c>
       <c r="N11">
-        <v>4.71197368206089</v>
+        <v>26.82977500000001</v>
       </c>
       <c r="O11">
-        <v>0.03603975574775222</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="P11">
-        <v>0.03603975574775222</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="Q11">
-        <v>318.7255891115017</v>
+        <v>795.9988218571666</v>
       </c>
       <c r="R11">
-        <v>318.7255891115017</v>
+        <v>7163.989396714501</v>
       </c>
       <c r="S11">
-        <v>0.005855747052196508</v>
+        <v>0.01192565973876149</v>
       </c>
       <c r="T11">
-        <v>0.005855747052196508</v>
+        <v>0.01192565973876149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.6416318548069</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H12">
-        <v>67.6416318548069</v>
+        <v>267.01638</v>
       </c>
       <c r="I12">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J12">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19280066200127</v>
+        <v>5.241885</v>
       </c>
       <c r="N12">
-        <v>5.19280066200127</v>
+        <v>15.725655</v>
       </c>
       <c r="O12">
-        <v>0.03971738386778057</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="P12">
-        <v>0.03971738386778057</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="Q12">
-        <v>351.2495106744875</v>
+        <v>466.5563856920999</v>
       </c>
       <c r="R12">
-        <v>351.2495106744875</v>
+        <v>4199.0074712289</v>
       </c>
       <c r="S12">
-        <v>0.006453288838374516</v>
+        <v>0.006989950929486114</v>
       </c>
       <c r="T12">
-        <v>0.006453288838374516</v>
+        <v>0.006989950929486113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.6416318548069</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H13">
-        <v>67.6416318548069</v>
+        <v>267.01638</v>
       </c>
       <c r="I13">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J13">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>120.838999699267</v>
+        <v>131.4484583333333</v>
       </c>
       <c r="N13">
-        <v>120.838999699267</v>
+        <v>394.345375</v>
       </c>
       <c r="O13">
-        <v>0.9242428603844673</v>
+        <v>0.8998186379262142</v>
       </c>
       <c r="P13">
-        <v>0.9242428603844673</v>
+        <v>0.8998186379262143</v>
       </c>
       <c r="Q13">
-        <v>8173.747131360941</v>
+        <v>11699.63050024916</v>
       </c>
       <c r="R13">
-        <v>8173.747131360941</v>
+        <v>105296.6745022425</v>
       </c>
       <c r="S13">
-        <v>0.1501711732757114</v>
+        <v>0.1752839433727753</v>
       </c>
       <c r="T13">
-        <v>0.1501711732757114</v>
+        <v>0.1752839433727753</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>71.3219309856992</v>
+        <v>68.108298</v>
       </c>
       <c r="H14">
-        <v>71.3219309856992</v>
+        <v>204.324894</v>
       </c>
       <c r="I14">
-        <v>0.1713205602368394</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J14">
-        <v>0.1713205602368394</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>4.71197368206089</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N14">
-        <v>4.71197368206089</v>
+        <v>1.349036</v>
       </c>
       <c r="O14">
-        <v>0.03603975574775222</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="P14">
-        <v>0.03603975574775222</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="Q14">
-        <v>336.0670617583777</v>
+        <v>30.626848633576</v>
       </c>
       <c r="R14">
-        <v>336.0670617583777</v>
+        <v>275.641637702184</v>
       </c>
       <c r="S14">
-        <v>0.006174351145503763</v>
+        <v>0.0004588516536022198</v>
       </c>
       <c r="T14">
-        <v>0.006174351145503763</v>
+        <v>0.0004588516536022197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>71.3219309856992</v>
+        <v>68.108298</v>
       </c>
       <c r="H15">
-        <v>71.3219309856992</v>
+        <v>204.324894</v>
       </c>
       <c r="I15">
-        <v>0.1713205602368394</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J15">
-        <v>0.1713205602368394</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.19280066200127</v>
+        <v>8.943258333333334</v>
       </c>
       <c r="N15">
-        <v>5.19280066200127</v>
+        <v>26.82977500000001</v>
       </c>
       <c r="O15">
-        <v>0.03971738386778057</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="P15">
-        <v>0.03971738386778057</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="Q15">
-        <v>370.3605704377477</v>
+        <v>609.1101036576501</v>
       </c>
       <c r="R15">
-        <v>370.3605704377477</v>
+        <v>5481.990932918852</v>
       </c>
       <c r="S15">
-        <v>0.006804404455369775</v>
+        <v>0.009125691697275314</v>
       </c>
       <c r="T15">
-        <v>0.006804404455369775</v>
+        <v>0.009125691697275312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>71.3219309856992</v>
+        <v>68.108298</v>
       </c>
       <c r="H16">
-        <v>71.3219309856992</v>
+        <v>204.324894</v>
       </c>
       <c r="I16">
-        <v>0.1713205602368394</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J16">
-        <v>0.1713205602368394</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>120.838999699267</v>
+        <v>5.241885</v>
       </c>
       <c r="N16">
-        <v>120.838999699267</v>
+        <v>15.725655</v>
       </c>
       <c r="O16">
-        <v>0.9242428603844673</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="P16">
-        <v>0.9242428603844673</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="Q16">
-        <v>8618.470796932048</v>
+        <v>357.01586566173</v>
       </c>
       <c r="R16">
-        <v>8618.470796932048</v>
+        <v>3213.14279095557</v>
       </c>
       <c r="S16">
-        <v>0.1583418046359659</v>
+        <v>0.00534881411669371</v>
       </c>
       <c r="T16">
-        <v>0.1583418046359659</v>
+        <v>0.005348814116693709</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.9944490781292</v>
+        <v>68.108298</v>
       </c>
       <c r="H17">
-        <v>38.9944490781292</v>
+        <v>204.324894</v>
       </c>
       <c r="I17">
-        <v>0.09366755456370807</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J17">
-        <v>0.09366755456370807</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.71197368206089</v>
+        <v>131.4484583333333</v>
       </c>
       <c r="N17">
-        <v>4.71197368206089</v>
+        <v>394.345375</v>
       </c>
       <c r="O17">
-        <v>0.03603975574775222</v>
+        <v>0.8998186379262142</v>
       </c>
       <c r="P17">
-        <v>0.03603975574775222</v>
+        <v>0.8998186379262143</v>
       </c>
       <c r="Q17">
-        <v>183.7408178026083</v>
+        <v>8952.73077180725</v>
       </c>
       <c r="R17">
-        <v>183.7408178026083</v>
+        <v>80574.57694626525</v>
       </c>
       <c r="S17">
-        <v>0.003375755787965293</v>
+        <v>0.134129873042037</v>
       </c>
       <c r="T17">
-        <v>0.003375755787965293</v>
+        <v>0.134129873042037</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.9944490781292</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H18">
-        <v>38.9944490781292</v>
+        <v>217.631107</v>
       </c>
       <c r="I18">
-        <v>0.09366755456370807</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J18">
-        <v>0.09366755456370807</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>5.19280066200127</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N18">
-        <v>5.19280066200127</v>
+        <v>1.349036</v>
       </c>
       <c r="O18">
-        <v>0.03971738386778057</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="P18">
-        <v>0.03971738386778057</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="Q18">
-        <v>202.4904009872841</v>
+        <v>32.62135534031688</v>
       </c>
       <c r="R18">
-        <v>202.4904009872841</v>
+        <v>293.5921980628519</v>
       </c>
       <c r="S18">
-        <v>0.003720230220563075</v>
+        <v>0.0004887333665873901</v>
       </c>
       <c r="T18">
-        <v>0.003720230220563075</v>
+        <v>0.00048873336658739</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="H19">
+        <v>217.631107</v>
+      </c>
+      <c r="I19">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="J19">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.943258333333334</v>
+      </c>
+      <c r="N19">
+        <v>26.82977500000001</v>
+      </c>
+      <c r="O19">
+        <v>0.06122027320940888</v>
+      </c>
+      <c r="P19">
+        <v>0.06122027320940888</v>
+      </c>
+      <c r="Q19">
+        <v>648.7770704234362</v>
+      </c>
+      <c r="R19">
+        <v>5838.993633810926</v>
+      </c>
+      <c r="S19">
+        <v>0.009719982461944823</v>
+      </c>
+      <c r="T19">
+        <v>0.009719982461944821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="H20">
+        <v>217.631107</v>
+      </c>
+      <c r="I20">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="J20">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.241885</v>
+      </c>
+      <c r="N20">
+        <v>15.725655</v>
+      </c>
+      <c r="O20">
+        <v>0.03588285386280379</v>
+      </c>
+      <c r="P20">
+        <v>0.03588285386280379</v>
+      </c>
+      <c r="Q20">
+        <v>380.265745105565</v>
+      </c>
+      <c r="R20">
+        <v>3422.391705950085</v>
+      </c>
+      <c r="S20">
+        <v>0.005697143967945869</v>
+      </c>
+      <c r="T20">
+        <v>0.005697143967945868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="H21">
+        <v>217.631107</v>
+      </c>
+      <c r="I21">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="J21">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>131.4484583333333</v>
+      </c>
+      <c r="N21">
+        <v>394.345375</v>
+      </c>
+      <c r="O21">
+        <v>0.8998186379262142</v>
+      </c>
+      <c r="P21">
+        <v>0.8998186379262143</v>
+      </c>
+      <c r="Q21">
+        <v>9535.757833508902</v>
+      </c>
+      <c r="R21">
+        <v>85821.82050158012</v>
+      </c>
+      <c r="S21">
+        <v>0.1428647884281196</v>
+      </c>
+      <c r="T21">
+        <v>0.1428647884281196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>44.074633</v>
+      </c>
+      <c r="H22">
+        <v>132.223899</v>
+      </c>
+      <c r="I22">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="J22">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.4496786666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.349036</v>
+      </c>
+      <c r="O22">
+        <v>0.003078235001572995</v>
+      </c>
+      <c r="P22">
+        <v>0.003078235001572995</v>
+      </c>
+      <c r="Q22">
+        <v>19.81942220126266</v>
+      </c>
+      <c r="R22">
+        <v>178.374799811364</v>
+      </c>
+      <c r="S22">
+        <v>0.000296934717616361</v>
+      </c>
+      <c r="T22">
+        <v>0.0002969347176163609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>44.074633</v>
+      </c>
+      <c r="H23">
+        <v>132.223899</v>
+      </c>
+      <c r="I23">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="J23">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.943258333333334</v>
+      </c>
+      <c r="N23">
+        <v>26.82977500000001</v>
+      </c>
+      <c r="O23">
+        <v>0.06122027320940888</v>
+      </c>
+      <c r="P23">
+        <v>0.06122027320940888</v>
+      </c>
+      <c r="Q23">
+        <v>394.1708288658584</v>
+      </c>
+      <c r="R23">
+        <v>3547.537459792725</v>
+      </c>
+      <c r="S23">
+        <v>0.005905470026993723</v>
+      </c>
+      <c r="T23">
+        <v>0.005905470026993721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>44.074633</v>
+      </c>
+      <c r="H24">
+        <v>132.223899</v>
+      </c>
+      <c r="I24">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="J24">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.241885</v>
+      </c>
+      <c r="N24">
+        <v>15.725655</v>
+      </c>
+      <c r="O24">
+        <v>0.03588285386280379</v>
+      </c>
+      <c r="P24">
+        <v>0.03588285386280379</v>
+      </c>
+      <c r="Q24">
+        <v>231.034157603205</v>
+      </c>
+      <c r="R24">
+        <v>2079.307418428845</v>
+      </c>
+      <c r="S24">
+        <v>0.003461355313540421</v>
+      </c>
+      <c r="T24">
+        <v>0.00346135531354042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>38.9944490781292</v>
-      </c>
-      <c r="H19">
-        <v>38.9944490781292</v>
-      </c>
-      <c r="I19">
-        <v>0.09366755456370807</v>
-      </c>
-      <c r="J19">
-        <v>0.09366755456370807</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>120.838999699267</v>
-      </c>
-      <c r="N19">
-        <v>120.838999699267</v>
-      </c>
-      <c r="O19">
-        <v>0.9242428603844673</v>
-      </c>
-      <c r="P19">
-        <v>0.9242428603844673</v>
-      </c>
-      <c r="Q19">
-        <v>4712.050220425137</v>
-      </c>
-      <c r="R19">
-        <v>4712.050220425137</v>
-      </c>
-      <c r="S19">
-        <v>0.08657156855517971</v>
-      </c>
-      <c r="T19">
-        <v>0.08657156855517971</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>44.074633</v>
+      </c>
+      <c r="H25">
+        <v>132.223899</v>
+      </c>
+      <c r="I25">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="J25">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>131.4484583333333</v>
+      </c>
+      <c r="N25">
+        <v>394.345375</v>
+      </c>
+      <c r="O25">
+        <v>0.8998186379262142</v>
+      </c>
+      <c r="P25">
+        <v>0.8998186379262143</v>
+      </c>
+      <c r="Q25">
+        <v>5793.542559457457</v>
+      </c>
+      <c r="R25">
+        <v>52141.88303511712</v>
+      </c>
+      <c r="S25">
+        <v>0.08679889385379114</v>
+      </c>
+      <c r="T25">
+        <v>0.08679889385379112</v>
       </c>
     </row>
   </sheetData>
